--- a/Electrochemical trials/3 CV 300_M1_S2_test2_cdl.DTA_sbs.xlsx
+++ b/Electrochemical trials/3 CV 300_M1_S2_test2_cdl.DTA_sbs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Vf_smooth</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>A_smooth</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -461,6 +471,12 @@
       <c r="C2" t="n">
         <v>-0.000267635</v>
       </c>
+      <c r="D2" t="n">
+        <v>-4.130631154149909e-05</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.0002465613359683792</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -472,6 +488,12 @@
       <c r="C3" t="n">
         <v>-0.000200121</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.001924412075337752</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.0002043763739828819</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -483,6 +505,12 @@
       <c r="C4" t="n">
         <v>-0.000160665</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.00390404899997345</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.0001689224791187453</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -494,6 +522,12 @@
       <c r="C5" t="n">
         <v>-0.000129566</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.005895663398254434</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.0001395705897226207</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -505,6 +539,12 @@
       <c r="C6" t="n">
         <v>-0.000104228</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.007897314206069541</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.0001156916441411595</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -516,6 +556,12 @@
       <c r="C7" t="n">
         <v>-8.26515e-05</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.00990706035930761</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-9.665658072101295e-05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -527,6 +573,12 @@
       <c r="C8" t="n">
         <v>-6.40739e-05</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.01192296079385748</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-8.183633780883243e-05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -538,6 +590,12 @@
       <c r="C9" t="n">
         <v>-0.00010906</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.01394307444560799</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-7.060185375126928e-05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -549,6 +607,12 @@
       <c r="C10" t="n">
         <v>-3.15933e-05</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.01596546025044798</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-6.232406689497482e-05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -560,6 +624,12 @@
       <c r="C11" t="n">
         <v>-8.84009e-05</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.01798817714426628</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5.637391558660038e-05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -571,6 +641,12 @@
       <c r="C12" t="n">
         <v>-7.37191e-05</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.0209986559886365</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-5.072598382197004e-05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -582,6 +658,12 @@
       <c r="C13" t="n">
         <v>-6.12589e-05</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.02299934330681833</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-4.634564435227304e-05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -593,6 +675,12 @@
       <c r="C14" t="n">
         <v>-5.04449e-05</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.02501695235227289</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-4.088078759469723e-05</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -604,6 +692,12 @@
       <c r="C15" t="n">
         <v>-3.9666e-05</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.0270055952803032</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-3.548775941287902e-05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -615,6 +709,12 @@
       <c r="C16" t="n">
         <v>-3.06794e-05</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.02900993697727291</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-2.955068982954565e-05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -626,6 +726,12 @@
       <c r="C17" t="n">
         <v>-2.20828e-05</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.03098253079545475</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.360501251893955e-05</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -637,6 +743,12 @@
       <c r="C18" t="n">
         <v>-1.397e-05</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.03295530291666688</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1.65656625189395e-05</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -648,6 +760,12 @@
       <c r="C19" t="n">
         <v>-6.06595e-06</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.03493444784090931</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.323321941287888e-05</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -659,6 +777,12 @@
       <c r="C20" t="n">
         <v>1.0939e-05</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.03691266814393963</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-3.936152064393975e-06</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -670,6 +794,12 @@
       <c r="C21" t="n">
         <v>-1.67541e-05</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.03889761215909116</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.221244829545456e-06</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -681,6 +811,12 @@
       <c r="C22" t="n">
         <v>5.50568e-06</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.04088851068181846</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.566350662878826e-06</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -692,6 +828,12 @@
       <c r="C23" t="n">
         <v>1.0939e-05</v>
       </c>
+      <c r="D23" t="n">
+        <v>0.04288387734848513</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.208142441287886e-05</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -703,6 +845,12 @@
       <c r="C24" t="n">
         <v>2.93902e-06</v>
       </c>
+      <c r="D24" t="n">
+        <v>0.04488458265151544</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.770664323863648e-05</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -714,6 +862,12 @@
       <c r="C25" t="n">
         <v>1.0939e-05</v>
       </c>
+      <c r="D25" t="n">
+        <v>0.04689031833333364</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.355808986742439e-05</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -725,6 +879,12 @@
       <c r="C26" t="n">
         <v>1.51574e-05</v>
       </c>
+      <c r="D26" t="n">
+        <v>0.04889992537878819</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.961391600378807e-05</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -736,6 +896,12 @@
       <c r="C27" t="n">
         <v>3.39096e-05</v>
       </c>
+      <c r="D27" t="n">
+        <v>0.05091442045454578</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.590744051136387e-05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -747,6 +913,12 @@
       <c r="C28" t="n">
         <v>4.77204e-05</v>
       </c>
+      <c r="D28" t="n">
+        <v>0.05293357068181852</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.243298403409118e-05</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -758,6 +930,12 @@
       <c r="C29" t="n">
         <v>5.31182e-05</v>
       </c>
+      <c r="D29" t="n">
+        <v>0.05495707166666702</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.922771734848517e-05</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -769,6 +947,12 @@
       <c r="C30" t="n">
         <v>5.76474e-05</v>
       </c>
+      <c r="D30" t="n">
+        <v>0.05699004829545491</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.311243000000036e-05</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -780,6 +964,12 @@
       <c r="C31" t="n">
         <v>6.22493e-05</v>
       </c>
+      <c r="D31" t="n">
+        <v>0.0589907205681822</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.653940011363674e-05</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -791,6 +981,12 @@
       <c r="C32" t="n">
         <v>6.64294e-05</v>
       </c>
+      <c r="D32" t="n">
+        <v>0.06101076238636403</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6.288082868939435e-05</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -802,6 +998,12 @@
       <c r="C33" t="n">
         <v>7.041e-05</v>
       </c>
+      <c r="D33" t="n">
+        <v>0.06302912234848525</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7.092947459848529e-05</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -813,6 +1015,12 @@
       <c r="C34" t="n">
         <v>7.48405e-05</v>
       </c>
+      <c r="D34" t="n">
+        <v>0.06501769049242465</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7.904683068181872e-05</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -824,6 +1032,12 @@
       <c r="C35" t="n">
         <v>7.89851e-05</v>
       </c>
+      <c r="D35" t="n">
+        <v>0.0670204660227277</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8.787835378787935e-05</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -835,6 +1049,12 @@
       <c r="C36" t="n">
         <v>8.25419e-05</v>
       </c>
+      <c r="D36" t="n">
+        <v>0.06899289094697014</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9.690386181818244e-05</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -846,6 +1066,12 @@
       <c r="C37" t="n">
         <v>8.567709999999999e-05</v>
       </c>
+      <c r="D37" t="n">
+        <v>0.07098396238636411</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0001071077753787886</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -857,6 +1083,12 @@
       <c r="C38" t="n">
         <v>8.8735e-05</v>
       </c>
+      <c r="D38" t="n">
+        <v>0.07297586284090957</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0001182326943939402</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -868,6 +1100,12 @@
       <c r="C39" t="n">
         <v>9.139469999999999e-05</v>
       </c>
+      <c r="D39" t="n">
+        <v>0.07496754696969744</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0001295302090151523</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -879,6 +1117,12 @@
       <c r="C40" t="n">
         <v>0.000164495</v>
       </c>
+      <c r="D40" t="n">
+        <v>0.07695904007575807</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0001407720367424252</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -890,6 +1134,12 @@
       <c r="C41" t="n">
         <v>0.000170225</v>
       </c>
+      <c r="D41" t="n">
+        <v>0.07895079238636415</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.000151624044280304</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -901,6 +1151,12 @@
       <c r="C42" t="n">
         <v>0.000173794</v>
       </c>
+      <c r="D42" t="n">
+        <v>0.08094307193181868</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0001618541761742434</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -912,6 +1168,12 @@
       <c r="C43" t="n">
         <v>0.000176252</v>
       </c>
+      <c r="D43" t="n">
+        <v>0.08293555628787933</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0001711451454924254</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -923,6 +1185,12 @@
       <c r="C44" t="n">
         <v>0.000179122</v>
       </c>
+      <c r="D44" t="n">
+        <v>0.08492951602272782</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0001793312608333345</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -934,6 +1202,12 @@
       <c r="C45" t="n">
         <v>0.000182444</v>
       </c>
+      <c r="D45" t="n">
+        <v>0.08692465564393996</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0001861644973106073</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -945,6 +1219,12 @@
       <c r="C46" t="n">
         <v>0.000184679</v>
       </c>
+      <c r="D46" t="n">
+        <v>0.08892187583333393</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0001912655900000012</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -956,6 +1236,12 @@
       <c r="C47" t="n">
         <v>0.000187099</v>
       </c>
+      <c r="D47" t="n">
+        <v>0.09092071484848543</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0001944594742045467</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -967,6 +1253,12 @@
       <c r="C48" t="n">
         <v>0.000189615</v>
       </c>
+      <c r="D48" t="n">
+        <v>0.09292163670454605</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0001953640177651527</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -978,6 +1270,12 @@
       <c r="C49" t="n">
         <v>0.00019253</v>
       </c>
+      <c r="D49" t="n">
+        <v>0.0949250347727279</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0001936697844696983</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -989,6 +1287,12 @@
       <c r="C50" t="n">
         <v>0.000194269</v>
       </c>
+      <c r="D50" t="n">
+        <v>0.09692433905303094</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0001958803030303043</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1000,6 +1304,12 @@
       <c r="C51" t="n">
         <v>0.000197061</v>
       </c>
+      <c r="D51" t="n">
+        <v>0.0989239332575764</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0001982121261363649</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1011,6 +1321,12 @@
       <c r="C52" t="n">
         <v>0.000199181</v>
       </c>
+      <c r="D52" t="n">
+        <v>0.1009241462121219</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0002005487333333346</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1022,6 +1338,12 @@
       <c r="C53" t="n">
         <v>0.000201887</v>
       </c>
+      <c r="D53" t="n">
+        <v>0.1029243129924249</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0002027954621212134</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1033,6 +1355,12 @@
       <c r="C54" t="n">
         <v>0.000203973</v>
       </c>
+      <c r="D54" t="n">
+        <v>0.1049242991666674</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0002048674829545468</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1044,6 +1372,12 @@
       <c r="C55" t="n">
         <v>0.000205685</v>
       </c>
+      <c r="D55" t="n">
+        <v>0.1069235320075765</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0002069151363636377</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1055,6 +1389,12 @@
       <c r="C56" t="n">
         <v>0.000208516</v>
       </c>
+      <c r="D56" t="n">
+        <v>0.1089232289015159</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0002089053234848498</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1066,6 +1406,12 @@
       <c r="C57" t="n">
         <v>0.000209612</v>
       </c>
+      <c r="D57" t="n">
+        <v>0.1109232559848492</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0002108251905303044</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1077,6 +1423,12 @@
       <c r="C58" t="n">
         <v>0.000211839</v>
       </c>
+      <c r="D58" t="n">
+        <v>0.1129225887878795</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0002127637621212135</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1088,6 +1440,12 @@
       <c r="C59" t="n">
         <v>0.000214155</v>
       </c>
+      <c r="D59" t="n">
+        <v>0.1149227089015159</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0002146177143939408</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1099,6 +1457,12 @@
       <c r="C60" t="n">
         <v>0.000215962</v>
       </c>
+      <c r="D60" t="n">
+        <v>0.1169225473863644</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0002164597026515165</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1110,6 +1474,12 @@
       <c r="C61" t="n">
         <v>0.000217244</v>
       </c>
+      <c r="D61" t="n">
+        <v>0.1189224315530311</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0002182262303030317</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1121,6 +1491,12 @@
       <c r="C62" t="n">
         <v>0.000218473</v>
       </c>
+      <c r="D62" t="n">
+        <v>0.1209222022727281</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0002199968469696984</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1132,6 +1508,12 @@
       <c r="C63" t="n">
         <v>0.000219714</v>
       </c>
+      <c r="D63" t="n">
+        <v>0.1229223568181826</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0002217843022727287</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1143,6 +1525,12 @@
       <c r="C64" t="n">
         <v>0.000222677</v>
       </c>
+      <c r="D64" t="n">
+        <v>0.1249225621212129</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0002234910409090923</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1154,6 +1542,12 @@
       <c r="C65" t="n">
         <v>0.000224759</v>
       </c>
+      <c r="D65" t="n">
+        <v>0.1269228356060614</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0002251898651515166</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1165,6 +1559,12 @@
       <c r="C66" t="n">
         <v>0.000226381</v>
       </c>
+      <c r="D66" t="n">
+        <v>0.1289232325757584</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0002269429378787893</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1176,6 +1576,12 @@
       <c r="C67" t="n">
         <v>0.000228326</v>
       </c>
+      <c r="D67" t="n">
+        <v>0.1309238159090917</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0002285965689393954</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1187,6 +1593,12 @@
       <c r="C68" t="n">
         <v>0.000229052</v>
       </c>
+      <c r="D68" t="n">
+        <v>0.1329232571969705</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0002302436087121227</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1198,6 +1610,12 @@
       <c r="C69" t="n">
         <v>0.000231762</v>
       </c>
+      <c r="D69" t="n">
+        <v>0.1349226473484857</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0002319879750000015</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1209,6 +1627,12 @@
       <c r="C70" t="n">
         <v>0.000232386</v>
       </c>
+      <c r="D70" t="n">
+        <v>0.1369231030303039</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0002337515803030318</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1220,6 +1644,12 @@
       <c r="C71" t="n">
         <v>0.0002349</v>
       </c>
+      <c r="D71" t="n">
+        <v>0.1389231882575767</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0002353982420454561</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1231,6 +1661,12 @@
       <c r="C72" t="n">
         <v>0.000235925</v>
       </c>
+      <c r="D72" t="n">
+        <v>0.1409231359848494</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0002370499026515167</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1242,6 +1678,12 @@
       <c r="C73" t="n">
         <v>0.000237353</v>
       </c>
+      <c r="D73" t="n">
+        <v>0.1429228856060615</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0002386346696969712</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1253,6 +1695,12 @@
       <c r="C74" t="n">
         <v>0.000239823</v>
       </c>
+      <c r="D74" t="n">
+        <v>0.1449224306818191</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0002402759912878804</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1264,6 +1712,12 @@
       <c r="C75" t="n">
         <v>0.000241053</v>
       </c>
+      <c r="D75" t="n">
+        <v>0.1469232446969706</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.000241954729924244</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1275,6 +1729,12 @@
       <c r="C76" t="n">
         <v>0.000242672</v>
       </c>
+      <c r="D76" t="n">
+        <v>0.1489234912878797</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0002437180992424258</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1286,6 +1746,12 @@
       <c r="C77" t="n">
         <v>0.00024475</v>
       </c>
+      <c r="D77" t="n">
+        <v>0.1509232549242434</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0002454510731060622</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1297,6 +1763,12 @@
       <c r="C78" t="n">
         <v>0.000246874</v>
       </c>
+      <c r="D78" t="n">
+        <v>0.152923637500001</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0002472593750000016</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1308,6 +1780,12 @@
       <c r="C79" t="n">
         <v>0.000247906</v>
       </c>
+      <c r="D79" t="n">
+        <v>0.1549237162878798</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0002491198689393956</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1319,6 +1797,12 @@
       <c r="C80" t="n">
         <v>0.000249426</v>
       </c>
+      <c r="D80" t="n">
+        <v>0.1569239196969707</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0002509322109848501</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1330,6 +1814,12 @@
       <c r="C81" t="n">
         <v>0.000252415</v>
       </c>
+      <c r="D81" t="n">
+        <v>0.1589232609848495</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0002528483659090925</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1341,6 +1831,12 @@
       <c r="C82" t="n">
         <v>0.000253705</v>
       </c>
+      <c r="D82" t="n">
+        <v>0.1609221299242435</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0002547793318181835</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1352,6 +1848,12 @@
       <c r="C83" t="n">
         <v>0.000255599</v>
       </c>
+      <c r="D83" t="n">
+        <v>0.1629218071969708</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0002568040564393956</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1363,6 +1865,12 @@
       <c r="C84" t="n">
         <v>0.000257914</v>
       </c>
+      <c r="D84" t="n">
+        <v>0.1649219321969708</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.000258897930303032</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1374,6 +1882,12 @@
       <c r="C85" t="n">
         <v>0.000260249</v>
       </c>
+      <c r="D85" t="n">
+        <v>0.1669217761363647</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0002609853962121229</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1385,6 +1899,12 @@
       <c r="C86" t="n">
         <v>0.000261576</v>
       </c>
+      <c r="D86" t="n">
+        <v>0.1689215556818193</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0002631700840909108</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1396,6 +1916,12 @@
       <c r="C87" t="n">
         <v>0.000265049</v>
       </c>
+      <c r="D87" t="n">
+        <v>0.1709204488636375</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0002653804329545473</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1407,6 +1933,12 @@
       <c r="C88" t="n">
         <v>0.000265823</v>
       </c>
+      <c r="D88" t="n">
+        <v>0.1729205912878799</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0002677945068181836</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1418,6 +1950,12 @@
       <c r="C89" t="n">
         <v>0.000268854</v>
       </c>
+      <c r="D89" t="n">
+        <v>0.174921756439395</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0002701881856060623</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1429,6 +1967,12 @@
       <c r="C90" t="n">
         <v>0.000271495</v>
       </c>
+      <c r="D90" t="n">
+        <v>0.177154544318183</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0002791963140151533</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1440,6 +1984,12 @@
       <c r="C91" t="n">
         <v>0.000274217</v>
       </c>
+      <c r="D91" t="n">
+        <v>0.1794826515151527</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0002879496696969716</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1451,6 +2001,12 @@
       <c r="C92" t="n">
         <v>0.000276865</v>
       </c>
+      <c r="D92" t="n">
+        <v>0.1817846958333345</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0002937224293560624</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1462,6 +2018,12 @@
       <c r="C93" t="n">
         <v>0.000278542</v>
       </c>
+      <c r="D93" t="n">
+        <v>0.1839552481060618</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0002952345239393958</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1473,6 +2035,12 @@
       <c r="C94" t="n">
         <v>0.000281704</v>
       </c>
+      <c r="D94" t="n">
+        <v>0.1859079090909103</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0002878359334090928</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1484,6 +2052,12 @@
       <c r="C95" t="n">
         <v>0.000285063</v>
       </c>
+      <c r="D95" t="n">
+        <v>0.18755240378788</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0002816028590151534</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1495,6 +2069,12 @@
       <c r="C96" t="n">
         <v>0.0002874</v>
       </c>
+      <c r="D96" t="n">
+        <v>0.1888439962121225</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.0002657614910984865</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1506,6 +2086,12 @@
       <c r="C97" t="n">
         <v>0.000291393</v>
       </c>
+      <c r="D97" t="n">
+        <v>0.1897299321969709</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0002478169683333349</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1517,6 +2103,12 @@
       <c r="C98" t="n">
         <v>0.000293309</v>
       </c>
+      <c r="D98" t="n">
+        <v>0.1901772295454558</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.0002274235898106075</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1528,6 +2120,12 @@
       <c r="C99" t="n">
         <v>0.000296892</v>
       </c>
+      <c r="D99" t="n">
+        <v>0.1901700378787891</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0002050434972348498</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1539,6 +2137,12 @@
       <c r="C100" t="n">
         <v>0.000186613</v>
       </c>
+      <c r="D100" t="n">
+        <v>0.1897091272727285</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0001811586651515163</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1550,6 +2154,12 @@
       <c r="C101" t="n">
         <v>0.000130312</v>
       </c>
+      <c r="D101" t="n">
+        <v>0.1888110651515164</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0001563132996590919</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -1561,6 +2171,12 @@
       <c r="C102" t="n">
         <v>9.13715e-05</v>
       </c>
+      <c r="D102" t="n">
+        <v>0.1875078981060618</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.00013132398521591</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1572,6 +2188,12 @@
       <c r="C103" t="n">
         <v>6.15191e-05</v>
       </c>
+      <c r="D103" t="n">
+        <v>0.1858438325757588</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0001068133373689401</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1583,6 +2205,12 @@
       <c r="C104" t="n">
         <v>0.00010701</v>
       </c>
+      <c r="D104" t="n">
+        <v>0.1838781219696982</v>
+      </c>
+      <c r="E104" t="n">
+        <v>8.404365107348542e-05</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1594,6 +2222,12 @@
       <c r="C105" t="n">
         <v>1.97788e-05</v>
       </c>
+      <c r="D105" t="n">
+        <v>0.1816712890151527</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6.122290817954589e-05</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1605,6 +2239,12 @@
       <c r="C106" t="n">
         <v>7.701110000000001e-05</v>
       </c>
+      <c r="D106" t="n">
+        <v>0.1793680375000012</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4.419046429697004e-05</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1616,6 +2256,12 @@
       <c r="C107" t="n">
         <v>5.86287e-05</v>
       </c>
+      <c r="D107" t="n">
+        <v>0.1770366833333344</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.175312581969722e-05</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -1627,6 +2273,12 @@
       <c r="C108" t="n">
         <v>4.54951e-05</v>
       </c>
+      <c r="D108" t="n">
+        <v>0.1747857757575769</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.393771949772747e-05</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1638,6 +2290,12 @@
       <c r="C109" t="n">
         <v>3.44418e-05</v>
       </c>
+      <c r="D109" t="n">
+        <v>0.1727975689393951</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.396633649772745e-05</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -1649,6 +2307,12 @@
       <c r="C110" t="n">
         <v>2.45049e-05</v>
       </c>
+      <c r="D110" t="n">
+        <v>0.1707940049242435</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.108493061136379e-05</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1660,6 +2324,12 @@
       <c r="C111" t="n">
         <v>1.66863e-05</v>
       </c>
+      <c r="D111" t="n">
+        <v>0.168825553409092</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.816060638409104e-05</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -1671,6 +2341,12 @@
       <c r="C112" t="n">
         <v>8.156210000000001e-06</v>
       </c>
+      <c r="D112" t="n">
+        <v>0.1668570106060617</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.42636547250001e-05</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1682,6 +2358,12 @@
       <c r="C113" t="n">
         <v>9.954719999999999e-07</v>
       </c>
+      <c r="D113" t="n">
+        <v>0.164887084469698</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8.21008889166673e-06</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -1693,6 +2375,12 @@
       <c r="C114" t="n">
         <v>-1.09343e-05</v>
       </c>
+      <c r="D114" t="n">
+        <v>0.1629074541666677</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6.243826118939434e-06</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -1704,6 +2392,12 @@
       <c r="C115" t="n">
         <v>2.17789e-05</v>
       </c>
+      <c r="D115" t="n">
+        <v>0.1609323113636374</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-2.224659729545462e-06</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -1715,6 +2409,12 @@
       <c r="C116" t="n">
         <v>-7.17067e-06</v>
       </c>
+      <c r="D116" t="n">
+        <v>0.1589471212121223</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-6.476050509848524e-06</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -1726,6 +2426,12 @@
       <c r="C117" t="n">
         <v>-1.09343e-05</v>
       </c>
+      <c r="D117" t="n">
+        <v>0.1569544458333344</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-1.120913103257583e-05</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1737,6 +2443,12 @@
       <c r="C118" t="n">
         <v>1.31453e-06</v>
       </c>
+      <c r="D118" t="n">
+        <v>0.1549550261363647</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-1.629803031287889e-05</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -1748,6 +2460,12 @@
       <c r="C119" t="n">
         <v>-1.09343e-05</v>
       </c>
+      <c r="D119" t="n">
+        <v>0.1529503617424253</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-2.173538289621226e-05</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -1759,6 +2477,12 @@
       <c r="C120" t="n">
         <v>-1.14493e-05</v>
       </c>
+      <c r="D120" t="n">
+        <v>0.1509397291666677</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-2.753797980530321e-05</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -1770,6 +2494,12 @@
       <c r="C121" t="n">
         <v>-3.16473e-05</v>
       </c>
+      <c r="D121" t="n">
+        <v>0.1489243185606071</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-3.362294558560628e-05</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -1781,6 +2511,12 @@
       <c r="C122" t="n">
         <v>-4.65098e-05</v>
       </c>
+      <c r="D122" t="n">
+        <v>0.1469023121212131</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-4.017217265000025e-05</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -1792,6 +2528,12 @@
       <c r="C123" t="n">
         <v>-5.20682e-05</v>
       </c>
+      <c r="D123" t="n">
+        <v>0.1448751556818191</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-4.704379200000031e-05</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -1803,6 +2545,12 @@
       <c r="C124" t="n">
         <v>-5.64978e-05</v>
       </c>
+      <c r="D124" t="n">
+        <v>0.1428428693181827</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-5.067892347727306e-05</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -1814,6 +2562,12 @@
       <c r="C125" t="n">
         <v>-6.01505e-05</v>
       </c>
+      <c r="D125" t="n">
+        <v>0.1408422428030313</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-5.363367616666701e-05</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -1825,6 +2579,12 @@
       <c r="C126" t="n">
         <v>-6.4057e-05</v>
       </c>
+      <c r="D126" t="n">
+        <v>0.1388199458333343</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-6.003728711742464e-05</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1836,6 +2596,12 @@
       <c r="C127" t="n">
         <v>-6.78489e-05</v>
       </c>
+      <c r="D127" t="n">
+        <v>0.136802281060607</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-6.813592257197012e-05</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -1847,6 +2613,12 @@
       <c r="C128" t="n">
         <v>-7.135979999999999e-05</v>
       </c>
+      <c r="D128" t="n">
+        <v>0.134815324621213</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-7.604253958333381e-05</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -1858,6 +2630,12 @@
       <c r="C129" t="n">
         <v>-7.4799e-05</v>
       </c>
+      <c r="D129" t="n">
+        <v>0.132814224621213</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-8.507395128787935e-05</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -1869,6 +2647,12 @@
       <c r="C130" t="n">
         <v>-7.84347e-05</v>
       </c>
+      <c r="D130" t="n">
+        <v>0.1308446034090917</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-9.40910819318188e-05</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -1880,6 +2664,12 @@
       <c r="C131" t="n">
         <v>-8.21405e-05</v>
       </c>
+      <c r="D131" t="n">
+        <v>0.1288543871212129</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0.000104308597803031</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -1891,6 +2681,12 @@
       <c r="C132" t="n">
         <v>-8.49573e-05</v>
       </c>
+      <c r="D132" t="n">
+        <v>0.1268636375000008</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-0.0001156016381060614</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -1902,6 +2698,12 @@
       <c r="C133" t="n">
         <v>-8.92881e-05</v>
       </c>
+      <c r="D133" t="n">
+        <v>0.1248729674242432</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-0.0001272095523484857</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -1913,6 +2715,12 @@
       <c r="C134" t="n">
         <v>-0.000164523</v>
       </c>
+      <c r="D134" t="n">
+        <v>0.1228818708333341</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-0.0001387899964393948</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -1924,6 +2732,12 @@
       <c r="C135" t="n">
         <v>-0.000168763</v>
       </c>
+      <c r="D135" t="n">
+        <v>0.1208909284090917</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-0.00014997746784091</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -1935,6 +2749,12 @@
       <c r="C136" t="n">
         <v>-0.000172655</v>
       </c>
+      <c r="D136" t="n">
+        <v>0.1188996721969705</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-0.0001605611523106071</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -1946,6 +2766,12 @@
       <c r="C137" t="n">
         <v>-0.000175811</v>
       </c>
+      <c r="D137" t="n">
+        <v>0.1169072501136371</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-0.0001703888961363648</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -1957,6 +2783,12 @@
       <c r="C138" t="n">
         <v>-0.000178796</v>
       </c>
+      <c r="D138" t="n">
+        <v>0.1149136863636371</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.0001790299754545466</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -1968,6 +2800,12 @@
       <c r="C139" t="n">
         <v>-0.000181742</v>
       </c>
+      <c r="D139" t="n">
+        <v>0.1139156024710112</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-0.0001820335972605427</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -1979,6 +2817,12 @@
       <c r="C140" t="n">
         <v>-0.000183707</v>
       </c>
+      <c r="D140" t="n">
+        <v>0.1119185785312502</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.0001872700041552498</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -1990,6 +2834,12 @@
       <c r="C141" t="n">
         <v>-0.000187623</v>
       </c>
+      <c r="D141" t="n">
+        <v>0.109920462546275</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-0.0001915604343909181</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2001,6 +2851,12 @@
       <c r="C142" t="n">
         <v>-0.000190437</v>
       </c>
+      <c r="D142" t="n">
+        <v>0.107921313909046</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-0.0001950030547243603</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2012,6 +2868,12 @@
       <c r="C143" t="n">
         <v>-0.000193137</v>
       </c>
+      <c r="D143" t="n">
+        <v>0.1059211920125237</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-0.0001976960319123897</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2023,6 +2885,12 @@
       <c r="C144" t="n">
         <v>-0.000196055</v>
       </c>
+      <c r="D144" t="n">
+        <v>0.1039201562496685</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-0.0001997375327118191</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2034,6 +2902,12 @@
       <c r="C145" t="n">
         <v>-0.000199676</v>
       </c>
+      <c r="D145" t="n">
+        <v>0.1019182660134409</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-0.0002012257238794615</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2045,6 +2919,12 @@
       <c r="C146" t="n">
         <v>-0.000202989</v>
       </c>
+      <c r="D146" t="n">
+        <v>0.09991558069680123</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-0.0002022587721721299</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2056,6 +2936,12 @@
       <c r="C147" t="n">
         <v>-0.000204376</v>
       </c>
+      <c r="D147" t="n">
+        <v>0.09791215969270999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-0.0002029348443466372</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2066,6 +2952,12 @@
       </c>
       <c r="C148" t="n">
         <v>-0.000207192</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.09590806239412757</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.0002033521071597965</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,6 +2995,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Vf_smooth</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>A_smooth</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2114,6 +3016,12 @@
       <c r="C2" t="n">
         <v>-0.000210196</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.0939170078147939</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.0002097904378317334</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2125,6 +3033,12 @@
       <c r="C3" t="n">
         <v>-0.000212466</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.09191760203156112</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.0002127027358792237</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2136,6 +3050,12 @@
       <c r="C4" t="n">
         <v>-0.000215543</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.0899180025407392</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.000215549516526494</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2147,6 +3067,12 @@
       <c r="C5" t="n">
         <v>-0.000217899</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.08791822989324041</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.0002183365078335224</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2158,6 +3084,12 @@
       <c r="C6" t="n">
         <v>-0.000220904</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.08591830463997706</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.0002210694378602866</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2169,6 +3101,12 @@
       <c r="C7" t="n">
         <v>-0.000223385</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.08391824733186137</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.0002237540346667645</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2180,6 +3118,12 @@
       <c r="C8" t="n">
         <v>-0.000226915</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.08191807851980566</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.0002263960263129341</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2191,6 +3135,12 @@
       <c r="C9" t="n">
         <v>-0.000229119</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.07991781875472218</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.0002290011408587733</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2202,6 +3152,12 @@
       <c r="C10" t="n">
         <v>-0.000232153</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.07791748858752319</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.0002315751063642598</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2213,6 +3169,12 @@
       <c r="C11" t="n">
         <v>-0.000233847</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.07591710856912098</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.0002341236508893717</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2224,6 +3186,12 @@
       <c r="C12" t="n">
         <v>-0.000237162</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.07291676053030349</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.0002379532181818198</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2235,6 +3203,12 @@
       <c r="C13" t="n">
         <v>-0.000239295</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.07091616814393988</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.0002404995409090925</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2246,6 +3220,12 @@
       <c r="C14" t="n">
         <v>-0.000241235</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.06891576810606105</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.0002430290625000016</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2257,6 +3237,12 @@
       <c r="C15" t="n">
         <v>-0.000243811</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.06691588458333378</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.0002454630462121228</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2268,6 +3254,12 @@
       <c r="C16" t="n">
         <v>-0.000246131</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.06491563689393981</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.0002479964621212137</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2279,6 +3271,12 @@
       <c r="C17" t="n">
         <v>-0.000249387</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.06291542011363678</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.0002504406617424258</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2290,6 +3288,12 @@
       <c r="C18" t="n">
         <v>-0.000252019</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.06091468242424282</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.0002530109712121228</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2301,6 +3305,12 @@
       <c r="C19" t="n">
         <v>-0.000254289</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.05891451337121249</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.0002555537996212138</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2312,6 +3322,12 @@
       <c r="C20" t="n">
         <v>-0.000257259</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.0569142218181822</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.0002581387821969714</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2323,6 +3339,12 @@
       <c r="C21" t="n">
         <v>-0.000259193</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.05491472257575793</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.000260585255303032</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2334,6 +3356,12 @@
       <c r="C22" t="n">
         <v>-0.000262066</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.05291435837121248</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.0002631253170454563</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2345,6 +3373,12 @@
       <c r="C23" t="n">
         <v>-0.000264052</v>
       </c>
+      <c r="D23" t="n">
+        <v>0.05091388742424276</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.0002657222984848502</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2356,6 +3390,12 @@
       <c r="C24" t="n">
         <v>-0.000266784</v>
       </c>
+      <c r="D24" t="n">
+        <v>0.04891378897727305</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.0002682446901515168</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2367,6 +3407,12 @@
       <c r="C25" t="n">
         <v>-0.00027013</v>
       </c>
+      <c r="D25" t="n">
+        <v>0.04691364083333364</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.0002707068810606079</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2378,6 +3424,12 @@
       <c r="C26" t="n">
         <v>-0.000271498</v>
       </c>
+      <c r="D26" t="n">
+        <v>0.04491358340909121</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.0002731290136363655</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2389,6 +3441,12 @@
       <c r="C27" t="n">
         <v>-0.000274806</v>
       </c>
+      <c r="D27" t="n">
+        <v>0.04291365071969725</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.000275555746212123</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2400,6 +3458,12 @@
       <c r="C28" t="n">
         <v>-0.000276556</v>
       </c>
+      <c r="D28" t="n">
+        <v>0.04091455587121239</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.0002779712231060624</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2411,6 +3475,12 @@
       <c r="C29" t="n">
         <v>-0.00027897</v>
       </c>
+      <c r="D29" t="n">
+        <v>0.03891487837121237</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.0002803890113636381</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2422,6 +3492,12 @@
       <c r="C30" t="n">
         <v>-0.000281315</v>
       </c>
+      <c r="D30" t="n">
+        <v>0.03691520431818205</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.0002828756625000018</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2433,6 +3509,12 @@
       <c r="C31" t="n">
         <v>-0.000284864</v>
       </c>
+      <c r="D31" t="n">
+        <v>0.03491526969696993</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.0002853825757575776</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2444,6 +3526,12 @@
       <c r="C32" t="n">
         <v>-0.000287181</v>
       </c>
+      <c r="D32" t="n">
+        <v>0.03291522170454567</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.0002878493825757594</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2455,6 +3543,12 @@
       <c r="C33" t="n">
         <v>-0.000288588</v>
       </c>
+      <c r="D33" t="n">
+        <v>0.03091494632575777</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.000290307565151517</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2466,6 +3560,12 @@
       <c r="C34" t="n">
         <v>-0.000291037</v>
       </c>
+      <c r="D34" t="n">
+        <v>0.02891467484848504</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.0002927819174242443</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2477,6 +3577,12 @@
       <c r="C35" t="n">
         <v>-0.000293903</v>
       </c>
+      <c r="D35" t="n">
+        <v>0.02691351952651533</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.0002953506825757594</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2488,6 +3594,12 @@
       <c r="C36" t="n">
         <v>-0.000296281</v>
       </c>
+      <c r="D36" t="n">
+        <v>0.02491256680303047</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.000297862099621214</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2499,6 +3611,12 @@
       <c r="C37" t="n">
         <v>-0.000299229</v>
       </c>
+      <c r="D37" t="n">
+        <v>0.02291155691287894</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.0003004606306818201</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2510,6 +3628,12 @@
       <c r="C38" t="n">
         <v>-0.000302216</v>
       </c>
+      <c r="D38" t="n">
+        <v>0.02091058772727286</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.0003030039818181839</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2521,6 +3645,12 @@
       <c r="C39" t="n">
         <v>-0.000304762</v>
       </c>
+      <c r="D39" t="n">
+        <v>0.018909143025038</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.0003056471893939413</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2532,6 +3662,12 @@
       <c r="C40" t="n">
         <v>-0.000307166</v>
       </c>
+      <c r="D40" t="n">
+        <v>0.01790863441684364</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.0003069738359902312</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2543,6 +3679,12 @@
       <c r="C41" t="n">
         <v>-0.000308946</v>
       </c>
+      <c r="D41" t="n">
+        <v>0.01590775249907182</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.0003096476808371777</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2554,6 +3696,12 @@
       <c r="C42" t="n">
         <v>-0.000312496</v>
       </c>
+      <c r="D42" t="n">
+        <v>0.01390709980121296</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.0003123486084211923</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2565,6 +3713,12 @@
       <c r="C43" t="n">
         <v>-0.000314938</v>
       </c>
+      <c r="D43" t="n">
+        <v>0.01190673490937595</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.0003150762353797769</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2576,6 +3730,12 @@
       <c r="C44" t="n">
         <v>-0.000317754</v>
       </c>
+      <c r="D44" t="n">
+        <v>0.009906716409669697</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.000317830178350433</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2587,6 +3747,12 @@
       <c r="C45" t="n">
         <v>-0.00032053</v>
       </c>
+      <c r="D45" t="n">
+        <v>0.007907102888203101</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.0003206100539706624</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2598,6 +3764,12 @@
       <c r="C46" t="n">
         <v>-0.000323361</v>
       </c>
+      <c r="D46" t="n">
+        <v>0.005907952931085071</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.0003234154788779667</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2609,6 +3781,12 @@
       <c r="C47" t="n">
         <v>-0.000326262</v>
       </c>
+      <c r="D47" t="n">
+        <v>0.003909325124424497</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.0003262460697098477</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2620,6 +3798,12 @@
       <c r="C48" t="n">
         <v>-0.000329737</v>
       </c>
+      <c r="D48" t="n">
+        <v>0.001911278054330286</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.0003291014431038069</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2630,6 +3814,12 @@
       </c>
       <c r="C49" t="n">
         <v>-0.000331574</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-8.612969308864626e-05</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.0003319812156973462</v>
       </c>
     </row>
   </sheetData>
